--- a/experiment_results/SBFL_ONLY/Summary/Email/multiple_bugs_123bug.xlsx
+++ b/experiment_results/SBFL_ONLY/Summary/Email/multiple_bugs_123bug.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="9">
   <si>
     <t>EVALUATION_METRIC</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Worst rank</t>
+  </si>
+  <si>
+    <t>Best exam</t>
+  </si>
+  <si>
+    <t>Worst exam</t>
   </si>
 </sst>
 </file>
@@ -395,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,6 +520,22 @@
         <v>39.88095238095238</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>2.618726302936831</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>16.1461345671872</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -521,7 +543,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -640,6 +662,22 @@
         <v>46.47619047619047</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>2.13996529786004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>18.8162714478504</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -647,7 +685,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -766,6 +804,22 @@
         <v>42.71428571428572</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>2.229933808881182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>17.29323308270676</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -773,7 +827,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -892,6 +946,22 @@
         <v>88.01587301587301</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>7.393483709273198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>35.63395668658827</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -899,7 +969,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1018,6 +1088,22 @@
         <v>88.01587301587301</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>7.393483709273198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>35.63395668658827</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1025,7 +1111,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1144,6 +1230,22 @@
         <v>39.85714285714285</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.471627787417265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>16.1364950838635</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1151,7 +1253,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1270,6 +1372,22 @@
         <v>60.25396825396825</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.645138487243752</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>24.39431913116124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1277,7 +1395,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1396,6 +1514,22 @@
         <v>76.00793650793651</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>7.075380759591283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>30.77244393033867</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1403,7 +1537,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1522,6 +1656,22 @@
         <v>112.7857142857143</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>13.61095045305574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>45.6622325043378</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1529,7 +1679,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1648,6 +1798,22 @@
         <v>46.47619047619047</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>2.13996529786004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>18.8162714478504</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1655,7 +1821,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1774,6 +1940,22 @@
         <v>46.47619047619047</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>2.13996529786004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>18.8162714478504</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1781,7 +1963,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1900,6 +2082,22 @@
         <v>45.65079365079365</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.423430370798795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>18.48210269262902</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1907,7 +2105,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2026,6 +2224,22 @@
         <v>112.7857142857143</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>13.61095045305574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>45.6622325043378</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2033,7 +2247,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2152,6 +2366,22 @@
         <v>112.7857142857143</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>13.61095045305574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>45.6622325043378</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2159,7 +2389,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2278,6 +2508,22 @@
         <v>112.7857142857143</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>13.61095045305574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>45.6622325043378</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2285,7 +2531,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2404,6 +2650,22 @@
         <v>47.36507936507937</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.908617698091382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>19.17614549193497</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2411,7 +2673,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2530,6 +2792,22 @@
         <v>41.25396825396825</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.429856693014591</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>16.70201143885354</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2537,7 +2815,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2656,6 +2934,22 @@
         <v>112.7857142857143</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>13.61095045305574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>45.6622325043378</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2663,7 +2957,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2782,6 +3076,22 @@
         <v>93.71428571428571</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>7.734078786710384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>37.94100636205899</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2789,7 +3099,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2908,6 +3218,22 @@
         <v>46.47619047619047</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>2.13996529786004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>18.8162714478504</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2915,7 +3241,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3034,6 +3360,22 @@
         <v>46.47619047619047</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>2.13996529786004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>18.8162714478504</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3041,7 +3383,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3160,6 +3502,22 @@
         <v>41.25396825396825</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.429856693014591</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>16.70201143885354</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3167,7 +3525,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3286,6 +3644,22 @@
         <v>61.37301587301587</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>3.85900649058544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>24.84737484737486</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3293,7 +3667,7 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3412,6 +3786,22 @@
         <v>49.72222222222222</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.523038365143631</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>20.13045434098066</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3419,7 +3809,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3538,6 +3928,22 @@
         <v>39.88095238095238</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>2.618726302936831</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>16.1461345671872</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3545,7 +3951,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3664,6 +4070,22 @@
         <v>52.87301587301587</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.397725081935611</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>21.40607930081614</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3671,7 +4093,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3790,6 +4212,22 @@
         <v>76.00793650793651</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>7.075380759591283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>30.77244393033867</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3797,7 +4235,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3916,6 +4354,22 @@
         <v>112.7857142857143</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>13.61095045305574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>45.6622325043378</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3923,7 +4377,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4042,6 +4496,22 @@
         <v>112.7857142857143</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>13.61095045305574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>45.6622325043378</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4049,7 +4519,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4168,6 +4638,22 @@
         <v>85.39682539682539</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.452348820769875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>34.57361352098194</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/experiment_results/SBFL_ONLY/Summary/Email/multiple_bugs_123bug.xlsx
+++ b/experiment_results/SBFL_ONLY/Summary/Email/multiple_bugs_123bug.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="10">
   <si>
     <t>EVALUATION_METRIC</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Proportion of cases that found bugs</t>
+  </si>
+  <si>
+    <t>Num of cases that found bugs (Hit@x)</t>
   </si>
   <si>
     <t>Best rank</t>
@@ -401,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -434,7 +437,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1970899470899469</v>
+        <v>0.1970899470899471</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -442,7 +445,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3134920634920637</v>
+        <v>0.3134920634920635</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -450,7 +453,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4021164021164031</v>
+        <v>0.4014550264550265</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -458,7 +461,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4312169312169321</v>
+        <v>0.4305555555555556</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -508,32 +511,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>6.468253968253968</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>39.88095238095238</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>2.618726302936831</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>16.1461345671872</v>
+      <c r="C19">
+        <v>2.61872630293683</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>16.14613456718721</v>
       </c>
     </row>
   </sheetData>
@@ -543,7 +589,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -576,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3280423280423284</v>
+        <v>0.3273809523809524</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -584,7 +630,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3703703703703711</v>
+        <v>0.3736772486772488</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -592,7 +638,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4576719576719584</v>
+        <v>0.4603174603174603</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -600,7 +646,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4722222222222229</v>
+        <v>0.4748677248677249</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -650,32 +696,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>5.285714285714286</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>46.47619047619047</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>2.13996529786004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>18.8162714478504</v>
+      <c r="C19">
+        <v>2.139965297860036</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>18.81627144785041</v>
       </c>
     </row>
   </sheetData>
@@ -685,7 +774,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -718,7 +807,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3280423280423284</v>
+        <v>0.3273809523809524</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -726,7 +815,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3703703703703711</v>
+        <v>0.3736772486772488</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -734,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4576719576719584</v>
+        <v>0.4603174603174603</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -742,7 +831,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4722222222222229</v>
+        <v>0.4748677248677249</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -792,32 +881,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>5.507936507936508</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>42.71428571428572</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>2.229933808881182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>17.29323308270676</v>
+      <c r="C19">
+        <v>2.229933808881178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>17.29323308270679</v>
       </c>
     </row>
   </sheetData>
@@ -827,7 +959,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -860,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3227513227513231</v>
+        <v>0.3220899470899471</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -868,7 +1000,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3690476190476198</v>
+        <v>0.3723544973544974</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -876,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4563492063492071</v>
+        <v>0.458994708994709</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -884,7 +1016,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4748677248677254</v>
+        <v>0.4775132275132276</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -934,32 +1066,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>18.26190476190476</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>88.01587301587301</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>7.393483709273198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>35.63395668658827</v>
+      <c r="C19">
+        <v>7.393483709273185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>35.63395668658825</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +1144,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1002,7 +1177,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3227513227513231</v>
+        <v>0.3220899470899471</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1010,7 +1185,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3690476190476198</v>
+        <v>0.3723544973544974</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1018,7 +1193,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4563492063492071</v>
+        <v>0.458994708994709</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1026,7 +1201,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4748677248677254</v>
+        <v>0.4775132275132276</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1076,32 +1251,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>18.26190476190476</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>88.01587301587301</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>7.393483709273198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>35.63395668658827</v>
+      <c r="C19">
+        <v>7.393483709273185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>35.63395668658825</v>
       </c>
     </row>
   </sheetData>
@@ -1111,7 +1329,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1144,7 +1362,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3650793650793658</v>
+        <v>0.3644179894179895</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1152,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3928571428571437</v>
+        <v>0.3961640211640212</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1160,7 +1378,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4523809523809533</v>
+        <v>0.4556878306878308</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1168,7 +1386,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4814814814814821</v>
+        <v>0.4841269841269842</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1218,31 +1436,74 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>3.634920634920635</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>39.85714285714285</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1.471627787417265</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
+      <c r="C19">
+        <v>1.471627787417261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
         <v>16.1364950838635</v>
       </c>
     </row>
@@ -1253,7 +1514,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1286,7 +1547,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3227513227513231</v>
+        <v>0.322089947089947</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1294,7 +1555,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3584656084656091</v>
+        <v>0.3617724867724867</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1302,7 +1563,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4153439153439161</v>
+        <v>0.4186507936507937</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1310,7 +1571,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4153439153439161</v>
+        <v>0.4186507936507937</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1360,32 +1621,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>4.063492063492063</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>60.25396825396825</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
         <v>1.645138487243752</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>24.39431913116124</v>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>24.39431913116125</v>
       </c>
     </row>
   </sheetData>
@@ -1395,7 +1699,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1436,7 +1740,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.01984126984126984</v>
+        <v>0.02380952380952381</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1444,7 +1748,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1005291005291006</v>
+        <v>0.1044973544973545</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1452,7 +1756,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.1005291005291006</v>
+        <v>0.1044973544973545</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1502,32 +1806,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>17.47619047619047</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>76.00793650793651</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>7.075380759591283</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>30.77244393033867</v>
+      <c r="C19">
+        <v>7.075380759591281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>30.77244393033868</v>
       </c>
     </row>
   </sheetData>
@@ -1537,7 +1884,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1570,7 +1917,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.134920634920635</v>
+        <v>0.1349206349206349</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1578,7 +1925,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1666666666666665</v>
+        <v>0.1706349206349206</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1586,7 +1933,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1984126984126982</v>
+        <v>0.2017195767195767</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1594,7 +1941,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2129629629629627</v>
+        <v>0.2162698412698413</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1644,32 +1991,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>33.61904761904762</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>112.7857142857143</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>13.61095045305574</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>45.6622325043378</v>
+      <c r="C19">
+        <v>13.61095045305572</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>45.66223250433775</v>
       </c>
     </row>
   </sheetData>
@@ -1679,7 +2069,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1712,7 +2102,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3280423280423284</v>
+        <v>0.3273809523809524</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1720,7 +2110,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3703703703703711</v>
+        <v>0.3736772486772488</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1728,7 +2118,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4576719576719584</v>
+        <v>0.4603174603174603</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1736,7 +2126,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4722222222222229</v>
+        <v>0.4748677248677249</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1786,32 +2176,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>5.285714285714286</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>46.47619047619047</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>2.13996529786004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>18.8162714478504</v>
+      <c r="C19">
+        <v>2.139965297860036</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>18.81627144785041</v>
       </c>
     </row>
   </sheetData>
@@ -1821,7 +2254,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1854,7 +2287,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3280423280423284</v>
+        <v>0.3273809523809524</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1862,7 +2295,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3703703703703711</v>
+        <v>0.3736772486772488</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1870,7 +2303,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4576719576719584</v>
+        <v>0.4603174603174603</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1878,7 +2311,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4722222222222229</v>
+        <v>0.4748677248677249</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1928,32 +2361,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>5.285714285714286</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>46.47619047619047</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>2.13996529786004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>18.8162714478504</v>
+      <c r="C19">
+        <v>2.139965297860036</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>18.81627144785041</v>
       </c>
     </row>
   </sheetData>
@@ -1963,7 +2439,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1996,7 +2472,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3650793650793658</v>
+        <v>0.3644179894179895</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2004,7 +2480,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3928571428571437</v>
+        <v>0.3961640211640212</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2012,7 +2488,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4550264550264559</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2020,7 +2496,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4867724867724874</v>
+        <v>0.4894179894179895</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2070,31 +2546,74 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>3.515873015873016</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>45.65079365079365</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1.423430370798795</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
+      <c r="C19">
+        <v>1.423430370798792</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
         <v>18.48210269262902</v>
       </c>
     </row>
@@ -2105,7 +2624,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2138,7 +2657,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.134920634920635</v>
+        <v>0.1349206349206349</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2146,7 +2665,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1666666666666665</v>
+        <v>0.1706349206349206</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2154,7 +2673,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1984126984126982</v>
+        <v>0.2017195767195767</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2162,7 +2681,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2129629629629627</v>
+        <v>0.2162698412698413</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2212,32 +2731,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>33.61904761904762</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>112.7857142857143</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>13.61095045305574</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>45.6622325043378</v>
+      <c r="C19">
+        <v>13.61095045305572</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>45.66223250433775</v>
       </c>
     </row>
   </sheetData>
@@ -2247,7 +2809,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2280,7 +2842,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.134920634920635</v>
+        <v>0.1349206349206349</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2288,7 +2850,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1666666666666665</v>
+        <v>0.1706349206349206</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2296,7 +2858,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1984126984126982</v>
+        <v>0.2017195767195767</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2304,7 +2866,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2129629629629627</v>
+        <v>0.2162698412698413</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2354,32 +2916,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>33.61904761904762</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>112.7857142857143</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>13.61095045305574</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>45.6622325043378</v>
+      <c r="C19">
+        <v>13.61095045305572</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>45.66223250433775</v>
       </c>
     </row>
   </sheetData>
@@ -2389,7 +2994,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2422,7 +3027,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.134920634920635</v>
+        <v>0.1349206349206349</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2430,7 +3035,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1666666666666665</v>
+        <v>0.1706349206349206</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2438,7 +3043,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1984126984126982</v>
+        <v>0.2017195767195767</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2446,7 +3051,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2129629629629627</v>
+        <v>0.2162698412698413</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2496,32 +3101,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>33.61904761904762</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>112.7857142857143</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>13.61095045305574</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>45.6622325043378</v>
+      <c r="C19">
+        <v>13.61095045305572</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>45.66223250433775</v>
       </c>
     </row>
   </sheetData>
@@ -2531,7 +3179,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2564,7 +3212,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2367724867724866</v>
+        <v>0.2361111111111111</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2572,7 +3220,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2724867724867725</v>
+        <v>0.2757936507936508</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2580,7 +3228,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.398148148148149</v>
+        <v>0.4014550264550265</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2588,7 +3236,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4417989417989426</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2638,32 +3286,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>4.714285714285714</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>47.36507936507937</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1.908617698091382</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>19.17614549193497</v>
+      <c r="C19">
+        <v>1.908617698091384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>19.17614549193498</v>
       </c>
     </row>
   </sheetData>
@@ -2673,7 +3364,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2706,7 +3397,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3624338624338632</v>
+        <v>0.3617724867724869</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2714,7 +3405,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.4246031746031756</v>
+        <v>0.427910052910053</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2722,7 +3413,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4523809523809534</v>
+        <v>0.4556878306878308</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2730,7 +3421,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4788359788359796</v>
+        <v>0.4814814814814815</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2780,32 +3471,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>3.531746031746032</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>41.25396825396825</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1.429856693014591</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>16.70201143885354</v>
+      <c r="C19">
+        <v>1.429856693014588</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>16.70201143885356</v>
       </c>
     </row>
   </sheetData>
@@ -2815,7 +3549,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2848,7 +3582,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.134920634920635</v>
+        <v>0.1349206349206349</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2856,7 +3590,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1666666666666665</v>
+        <v>0.1706349206349206</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2864,7 +3598,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1984126984126982</v>
+        <v>0.2017195767195767</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2872,7 +3606,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2129629629629627</v>
+        <v>0.2162698412698413</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2922,32 +3656,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>33.61904761904762</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>112.7857142857143</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>13.61095045305574</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>45.6622325043378</v>
+      <c r="C19">
+        <v>13.61095045305572</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>45.66223250433775</v>
       </c>
     </row>
   </sheetData>
@@ -2957,7 +3734,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2982,7 +3759,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1150793650793652</v>
+        <v>0.1150793650793651</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2990,7 +3767,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3597883597883604</v>
+        <v>0.3591269841269842</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2998,7 +3775,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3783068783068791</v>
+        <v>0.3816137566137567</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3006,7 +3783,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.427248677248678</v>
+        <v>0.4305555555555556</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3014,7 +3791,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4431216931216938</v>
+        <v>0.4464285714285715</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3064,32 +3841,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>19.1031746031746</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>93.71428571428571</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>7.734078786710384</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>37.94100636205899</v>
+      <c r="C19">
+        <v>7.734078786710367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>37.94100636205897</v>
       </c>
     </row>
   </sheetData>
@@ -3099,7 +3919,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3132,7 +3952,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3280423280423284</v>
+        <v>0.3273809523809524</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3140,7 +3960,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3703703703703711</v>
+        <v>0.3736772486772488</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3148,7 +3968,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4576719576719584</v>
+        <v>0.4603174603174603</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3156,7 +3976,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4722222222222229</v>
+        <v>0.4748677248677249</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3206,32 +4026,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>5.285714285714286</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>46.47619047619047</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>2.13996529786004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>18.8162714478504</v>
+      <c r="C19">
+        <v>2.139965297860036</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>18.81627144785041</v>
       </c>
     </row>
   </sheetData>
@@ -3241,7 +4104,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3274,7 +4137,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3280423280423284</v>
+        <v>0.3273809523809524</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3282,7 +4145,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3703703703703711</v>
+        <v>0.3736772486772488</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3290,7 +4153,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4576719576719584</v>
+        <v>0.4603174603174603</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3298,7 +4161,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4722222222222229</v>
+        <v>0.4748677248677249</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3348,32 +4211,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>5.285714285714286</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>46.47619047619047</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>2.13996529786004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>18.8162714478504</v>
+      <c r="C19">
+        <v>2.139965297860036</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>18.81627144785041</v>
       </c>
     </row>
   </sheetData>
@@ -3383,7 +4289,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3416,7 +4322,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3624338624338632</v>
+        <v>0.3617724867724869</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3424,7 +4330,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.4246031746031756</v>
+        <v>0.427910052910053</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3432,7 +4338,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4523809523809534</v>
+        <v>0.4556878306878308</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3440,7 +4346,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4788359788359796</v>
+        <v>0.4814814814814815</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3490,32 +4396,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>3.531746031746032</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>41.25396825396825</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1.429856693014591</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>16.70201143885354</v>
+      <c r="C19">
+        <v>1.429856693014588</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>16.70201143885356</v>
       </c>
     </row>
   </sheetData>
@@ -3525,7 +4474,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3566,7 +4515,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2023809523809524</v>
+        <v>0.2063492063492063</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3574,7 +4523,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2671957671957672</v>
+        <v>0.2711640211640212</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3582,7 +4531,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2671957671957672</v>
+        <v>0.2711640211640212</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3632,32 +4581,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>9.531746031746032</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>61.37301587301587</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>3.85900649058544</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>24.84737484737486</v>
+      <c r="C19">
+        <v>3.859006490585442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>24.84737484737487</v>
       </c>
     </row>
   </sheetData>
@@ -3667,7 +4659,7 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3700,7 +4692,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3478835978835985</v>
+        <v>0.3472222222222222</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3708,7 +4700,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3835978835978844</v>
+        <v>0.3869047619047619</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3716,7 +4708,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4219576719576729</v>
+        <v>0.4252645502645503</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3724,7 +4716,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4523809523809534</v>
+        <v>0.4556878306878308</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3774,32 +4766,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>3.761904761904762</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>49.72222222222222</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1.523038365143631</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>20.13045434098066</v>
+      <c r="C19">
+        <v>1.523038365143629</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>20.13045434098067</v>
       </c>
     </row>
   </sheetData>
@@ -3809,7 +4844,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3842,7 +4877,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1970899470899469</v>
+        <v>0.1970899470899471</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3850,7 +4885,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3134920634920637</v>
+        <v>0.3134920634920635</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3858,7 +4893,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4021164021164031</v>
+        <v>0.4014550264550265</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3866,7 +4901,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4312169312169321</v>
+        <v>0.4305555555555556</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3916,32 +4951,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>6.468253968253968</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>39.88095238095238</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>2.618726302936831</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>16.1461345671872</v>
+      <c r="C19">
+        <v>2.61872630293683</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>16.14613456718721</v>
       </c>
     </row>
   </sheetData>
@@ -3951,7 +5029,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3984,7 +5062,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3492063492063498</v>
+        <v>0.3485449735449736</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3992,7 +5070,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.4126984126984137</v>
+        <v>0.416005291005291</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4000,7 +5078,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4775132275132282</v>
+        <v>0.4801587301587302</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4008,7 +5086,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4814814814814822</v>
+        <v>0.4841269841269842</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4058,32 +5136,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>3.452380952380953</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>52.87301587301587</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1.397725081935611</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>21.40607930081614</v>
+      <c r="C19">
+        <v>1.397725081935609</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>21.40607930081616</v>
       </c>
     </row>
   </sheetData>
@@ -4093,7 +5214,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4134,7 +5255,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.01984126984126984</v>
+        <v>0.02380952380952381</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4142,7 +5263,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1005291005291006</v>
+        <v>0.1044973544973545</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4150,7 +5271,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.1005291005291006</v>
+        <v>0.1044973544973545</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4200,32 +5321,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>17.47619047619047</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>76.00793650793651</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>7.075380759591283</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>30.77244393033867</v>
+      <c r="C19">
+        <v>7.075380759591281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>30.77244393033868</v>
       </c>
     </row>
   </sheetData>
@@ -4235,7 +5399,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4268,7 +5432,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.134920634920635</v>
+        <v>0.1349206349206349</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4276,7 +5440,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1666666666666665</v>
+        <v>0.1706349206349206</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4284,7 +5448,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1984126984126982</v>
+        <v>0.2017195767195767</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4292,7 +5456,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2129629629629627</v>
+        <v>0.2162698412698413</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4342,32 +5506,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>33.61904761904762</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>112.7857142857143</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>13.61095045305574</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>45.6622325043378</v>
+      <c r="C19">
+        <v>13.61095045305572</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>45.66223250433775</v>
       </c>
     </row>
   </sheetData>
@@ -4377,7 +5584,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4410,7 +5617,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.134920634920635</v>
+        <v>0.1349206349206349</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4418,7 +5625,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1666666666666665</v>
+        <v>0.1706349206349206</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4426,7 +5633,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1984126984126982</v>
+        <v>0.2017195767195767</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4434,7 +5641,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2129629629629627</v>
+        <v>0.2162698412698413</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4484,32 +5691,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>33.61904761904762</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>112.7857142857143</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>13.61095045305574</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>45.6622325043378</v>
+      <c r="C19">
+        <v>13.61095045305572</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>45.66223250433775</v>
       </c>
     </row>
   </sheetData>
@@ -4519,7 +5769,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4552,7 +5802,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3664021164021172</v>
+        <v>0.3657407407407408</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4560,7 +5810,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.402116402116403</v>
+        <v>0.4054232804232805</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4568,7 +5818,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4417989417989426</v>
+        <v>0.4451058201058202</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4576,7 +5826,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4444444444444453</v>
+        <v>0.4477513227513228</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4626,32 +5876,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>3.587301587301587</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>85.39682539682539</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1.452348820769875</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>34.57361352098194</v>
+      <c r="C19">
+        <v>1.452348820769874</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>34.57361352098189</v>
       </c>
     </row>
   </sheetData>
